--- a/image/patient.xlsx
+++ b/image/patient.xlsx
@@ -1222,47 +1222,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.1171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="78.75" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.06640625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="41.1328125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.43359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.41015625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="38.12890625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="35.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/patient.xlsx
+++ b/image/patient.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="340">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -724,10 +724,6 @@
   </si>
   <si>
     <t>Patient.contact.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1222,47 +1218,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="78.75" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.27734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="77.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="153.55078125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.41015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.8515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="38.12890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.59765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="151.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.06640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.1328125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3892,13 +3888,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3949,7 +3945,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -3984,7 +3980,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4013,7 +4009,7 @@
         <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>101</v>
@@ -4066,7 +4062,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4101,11 +4097,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4127,10 +4123,10 @@
         <v>98</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>101</v>
@@ -4185,7 +4181,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4220,7 +4216,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4246,14 +4242,14 @@
         <v>191</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4281,11 +4277,11 @@
         <v>195</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4317,7 +4313,7 @@
         <v>45</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
@@ -4329,7 +4325,7 @@
         <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4337,7 +4333,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4363,14 +4359,14 @@
         <v>130</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4419,7 +4415,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4446,7 +4442,7 @@
         <v>45</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4454,7 +4450,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4480,13 +4476,13 @@
         <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>144</v>
@@ -4538,7 +4534,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4565,7 +4561,7 @@
         <v>45</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4573,7 +4569,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4599,14 +4595,14 @@
         <v>181</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4655,7 +4651,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4682,7 +4678,7 @@
         <v>45</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -4690,7 +4686,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4719,11 +4715,11 @@
         <v>150</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -4772,7 +4768,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4799,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -4807,7 +4803,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4830,17 +4826,17 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -4889,7 +4885,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -4898,13 +4894,13 @@
         <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
@@ -4916,7 +4912,7 @@
         <v>45</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4947,13 +4943,13 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5004,7 +5000,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5019,7 +5015,7 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
@@ -5039,7 +5035,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5065,16 +5061,16 @@
         <v>219</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5123,7 +5119,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5135,16 +5131,16 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>45</v>
@@ -5158,7 +5154,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5181,13 +5177,13 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5238,7 +5234,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5273,7 +5269,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5302,7 +5298,7 @@
         <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>101</v>
@@ -5355,7 +5351,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5390,11 +5386,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5416,10 +5412,10 @@
         <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>101</v>
@@ -5474,7 +5470,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5509,7 +5505,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5535,16 +5531,16 @@
         <v>191</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5593,7 +5589,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>53</v>
@@ -5608,19 +5604,19 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -5628,7 +5624,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5654,16 +5650,16 @@
         <v>119</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5712,7 +5708,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5727,19 +5723,19 @@
         <v>45</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -5747,11 +5743,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5770,16 +5766,16 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5829,7 +5825,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -5844,7 +5840,7 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
@@ -5856,7 +5852,7 @@
         <v>45</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -5864,7 +5860,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5887,19 +5883,19 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -5948,7 +5944,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -5963,13 +5959,13 @@
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>45</v>
@@ -5983,7 +5979,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6009,16 +6005,16 @@
         <v>219</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6067,7 +6063,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6079,10 +6075,10 @@
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
@@ -6102,7 +6098,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6125,13 +6121,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6182,7 +6178,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6217,7 +6213,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6246,7 +6242,7 @@
         <v>99</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>101</v>
@@ -6299,7 +6295,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6334,11 +6330,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6360,10 +6356,10 @@
         <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>101</v>
@@ -6418,7 +6414,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6453,7 +6449,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6476,16 +6472,16 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6535,7 +6531,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>53</v>
@@ -6562,7 +6558,7 @@
         <v>45</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>45</v>
@@ -6570,7 +6566,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6596,10 +6592,10 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6629,11 +6625,11 @@
         <v>154</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y46" t="s" s="2">
-        <v>339</v>
-      </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6650,7 +6646,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>53</v>
@@ -6665,7 +6661,7 @@
         <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>45</v>
